--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\CursoExperimentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE1BEAC-CEE3-4136-B77A-A12A2430EEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2116038-D57A-42DB-9D5A-0A6F4D6518CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3292" yWindow="1853" windowWidth="18000" windowHeight="9397" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Tema</t>
   </si>
   <si>
-    <t>Slide</t>
-  </si>
-  <si>
-    <t>Labs</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
     <t>Inferencia causal</t>
   </si>
   <si>
@@ -77,7 +68,16 @@
     <t>Módulo</t>
   </si>
   <si>
-    <t>[ff](https://github.com/Nicolas-Schmidt/CursoExperimentos/blob/master/Programa/Programa2023.pdf)</t>
+    <t>[Slide 1](https://drive.google.com/file/d/11S5sW3UUnEfDna5LPVoeTchjwbAmg1iw/view?usp=sharing)</t>
+  </si>
+  <si>
+    <t>Presentaciones</t>
+  </si>
+  <si>
+    <t>Laboratorios</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -429,115 +429,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93399269-1F99-462F-8F16-46DE19A2F964}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="18.86328125" customWidth="1"/>
+    <col min="2" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2116038-D57A-42DB-9D5A-0A6F4D6518CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E0DD4E-C27F-4F25-AA14-FE59B8738CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Módulo</t>
   </si>
   <si>
-    <t>[Slide 1](https://drive.google.com/file/d/11S5sW3UUnEfDna5LPVoeTchjwbAmg1iw/view?usp=sharing)</t>
-  </si>
-  <si>
     <t>Presentaciones</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>[Slide 1](https://drive.google.com/file/d/1zpyLVzf75A1yy5zIeg0aAMfdiT24G651/view?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,10 +451,10 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,10 +502,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -519,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E0DD4E-C27F-4F25-AA14-FE59B8738CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DD908A-B5BE-554F-B08F-60680879052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="15840" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Tema</t>
   </si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>[Slide 1](https://drive.google.com/file/d/1zpyLVzf75A1yy5zIeg0aAMfdiT24G651/view?usp=sharing)</t>
+  </si>
+  <si>
+    <t>[Slides](https://drive.google.com/file/d/1kgu_trh0wRz9OG2HtATphlJxC4ALlhmk/view?usp=drive_link)</t>
   </si>
 </sst>
 </file>
@@ -432,15 +432,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="18.85546875" customWidth="1"/>
+    <col min="2" max="3" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -457,7 +457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -474,7 +474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -525,7 +525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -542,7 +542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -559,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DD908A-B5BE-554F-B08F-60680879052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96DC160-061F-0B42-98AE-8C818DC8E3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="15840" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31000" windowHeight="20120" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Tema</t>
   </si>
@@ -74,18 +73,46 @@
     <t>.</t>
   </si>
   <si>
-    <t>[Slide 1](https://drive.google.com/file/d/1zpyLVzf75A1yy5zIeg0aAMfdiT24G651/view?usp=sharing)</t>
-  </si>
-  <si>
-    <t>[Slides](https://drive.google.com/file/d/1kgu_trh0wRz9OG2HtATphlJxC4ALlhmk/view?usp=drive_link)</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [HTML](https://drive.google.com/open?id=1A4J-XZab1r_iaJ9XU18nphHLtWFuFJSt&amp;usp=drive_fs), [.Rmd](https://drive.google.com/file/d/19z4SL9vYMvSU8s1QrE_ICsWRCQWTeqvW/view?usp=sharing)</t>
+    </r>
+  </si>
+  <si>
+    <t>[PDF](https://drive.google.com/file/d/14ocI_63vA0eF2ixw4rOMzs0H6vzGTv4H/view?usp=sharing)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -432,12 +459,13 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -468,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -483,12 +511,6 @@
       </c>
       <c r="C3">
         <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96DC160-061F-0B42-98AE-8C818DC8E3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287CBF14-6922-F14B-9884-8467344BC2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31000" windowHeight="20120" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287CBF14-6922-F14B-9884-8467344BC2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3BB72B-83DD-C944-A684-71629D47364B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31000" windowHeight="20120" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
@@ -73,6 +73,9 @@
     <t>.</t>
   </si>
   <si>
+    <t>[PDF](https://drive.google.com/u/0/uc?id=14ocI_63vA0eF2ixw4rOMzs0H6vzGTv4H&amp;export=download)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -92,11 +95,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> [HTML](https://drive.google.com/open?id=1A4J-XZab1r_iaJ9XU18nphHLtWFuFJSt&amp;usp=drive_fs), [.Rmd](https://drive.google.com/file/d/19z4SL9vYMvSU8s1QrE_ICsWRCQWTeqvW/view?usp=sharing)</t>
+      <t xml:space="preserve"> [HTML](https://drive.google.com/u/0/uc?id=1A4J-XZab1r_iaJ9XU18nphHLtWFuFJSt&amp;export=download), [.Rmd](https://drive.google.com/u/0/uc?id=19z4SL9vYMvSU8s1QrE_ICsWRCQWTeqvW&amp;export=download)</t>
     </r>
-  </si>
-  <si>
-    <t>[PDF](https://drive.google.com/file/d/14ocI_63vA0eF2ixw4rOMzs0H6vzGTv4H/view?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3BB72B-83DD-C944-A684-71629D47364B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6F4CC6-55DF-9C43-94E3-591BDFF54273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31000" windowHeight="20120" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Tema</t>
   </si>
@@ -76,43 +76,15 @@
     <t>[PDF](https://drive.google.com/u/0/uc?id=14ocI_63vA0eF2ixw4rOMzs0H6vzGTv4H&amp;export=download)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [HTML](https://drive.google.com/u/0/uc?id=1A4J-XZab1r_iaJ9XU18nphHLtWFuFJSt&amp;export=download), [.Rmd](https://drive.google.com/u/0/uc?id=19z4SL9vYMvSU8s1QrE_ICsWRCQWTeqvW&amp;export=download)</t>
-    </r>
+    <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1A4J-XZab1r_iaJ9XU18nphHLtWFuFJSt&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=19z4SL9vYMvSU8s1QrE_ICsWRCQWTeqvW&amp;export=download)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -459,7 +431,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -512,6 +484,12 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6F4CC6-55DF-9C43-94E3-591BDFF54273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A2A98-C779-4E49-8FBC-4BCE4E8CCA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31000" windowHeight="20120" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34780" windowHeight="25520" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Tema</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Pre-registro de experimentos</t>
   </si>
   <si>
-    <t>Cantidad de clases</t>
-  </si>
-  <si>
     <t>Módulo</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1A4J-XZab1r_iaJ9XU18nphHLtWFuFJSt&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=19z4SL9vYMvSU8s1QrE_ICsWRCQWTeqvW&amp;export=download)</t>
+  </si>
+  <si>
+    <t>Lecturas</t>
   </si>
 </sst>
 </file>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93399269-1F99-462F-8F16-46DE19A2F964}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -442,19 +442,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -464,14 +464,14 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -481,14 +481,14 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -498,14 +498,14 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -515,14 +515,14 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -532,14 +532,14 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>3</v>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -549,14 +549,14 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>3</v>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -566,14 +566,14 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A2A98-C779-4E49-8FBC-4BCE4E8CCA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA533ADD-BC15-5147-B93E-1E63DD92B30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34780" windowHeight="25520" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>Tema</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Lecturas</t>
+  </si>
+  <si>
+    <t>[Gerber  &amp; Green 2012. FEDAI](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -431,12 +434,13 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="99.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA533ADD-BC15-5147-B93E-1E63DD92B30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710B5877-944F-A64C-A073-C924B7771B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34780" windowHeight="25520" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <t>Lecturas</t>
   </si>
   <si>
-    <t>[Gerber  &amp; Green 2012. FEDAI](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing)</t>
+    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710B5877-944F-A64C-A073-C924B7771B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F0EB23-AAF2-DE40-B18B-7ED5A59A9E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34780" windowHeight="25520" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
@@ -73,13 +73,13 @@
     <t>[PDF](https://drive.google.com/u/0/uc?id=14ocI_63vA0eF2ixw4rOMzs0H6vzGTv4H&amp;export=download)</t>
   </si>
   <si>
-    <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1A4J-XZab1r_iaJ9XU18nphHLtWFuFJSt&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=19z4SL9vYMvSU8s1QrE_ICsWRCQWTeqvW&amp;export=download)</t>
-  </si>
-  <si>
     <t>Lecturas</t>
   </si>
   <si>
     <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing)</t>
+  </si>
+  <si>
+    <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1J6pjygV39O6g-A_VqCOC-A64s9vlZSd_&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=1JAns64_qRpMvtEWVIQC39CLFNQhEMoCz&amp;export=download)</t>
   </si>
 </sst>
 </file>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93399269-1F99-462F-8F16-46DE19A2F964}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -452,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F0EB23-AAF2-DE40-B18B-7ED5A59A9E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA36F2-D82B-3F47-B6C3-1D6935E419C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34780" windowHeight="25520" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
@@ -76,10 +76,11 @@
     <t>Lecturas</t>
   </si>
   <si>
-    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing)</t>
-  </si>
-  <si>
     <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1J6pjygV39O6g-A_VqCOC-A64s9vlZSd_&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=1JAns64_qRpMvtEWVIQC39CLFNQhEMoCz&amp;export=download)</t>
+  </si>
+  <si>
+    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing)
+Barbas 2010 [pdf](url)</t>
   </si>
 </sst>
 </file>
@@ -115,8 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93399269-1F99-462F-8F16-46DE19A2F964}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -461,21 +465,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA36F2-D82B-3F47-B6C3-1D6935E419C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812C6AD-3175-1749-B8E8-95D970BD7347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34780" windowHeight="25520" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
   </bookViews>
@@ -79,8 +79,7 @@
     <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1J6pjygV39O6g-A_VqCOC-A64s9vlZSd_&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=1JAns64_qRpMvtEWVIQC39CLFNQhEMoCz&amp;export=download)</t>
   </si>
   <si>
-    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing)
-Barbas 2010 [pdf](url)</t>
+    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing), Barbas 2010 [pdf](url)</t>
   </si>
 </sst>
 </file>
@@ -438,7 +437,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -465,7 +464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ry4DW0ytzBTm2QpZbBJtiQ_i_FWgsO8E\Experimentos dECON\Curso_Experimentos WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812C6AD-3175-1749-B8E8-95D970BD7347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34780" windowHeight="25520" xr2:uid="{38AD5D95-C7EC-4A58-AFC7-95892A1782E5}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34785" windowHeight="25515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,13 +78,13 @@
     <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1J6pjygV39O6g-A_VqCOC-A64s9vlZSd_&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=1JAns64_qRpMvtEWVIQC39CLFNQhEMoCz&amp;export=download)</t>
   </si>
   <si>
-    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing), Barbas 2010 [pdf](url)</t>
+    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing), Barbas 2010 [pdf](https://drive.google.com/file/d/15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y/view)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,21 +432,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93399269-1F99-462F-8F16-46DE19A2F964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="99.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -464,7 +463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -481,7 +480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -498,7 +497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -515,7 +514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -532,7 +531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -549,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -566,7 +565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ry4DW0ytzBTm2QpZbBJtiQ_i_FWgsO8E\Experimentos dECON\Curso_Experimentos WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Docencia\2023\Curso Diseño de Experimentos\Curso_Experimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A913F3-BD33-432D-950F-B9E339EAA220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34785" windowHeight="25515"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -78,13 +72,15 @@
     <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1J6pjygV39O6g-A_VqCOC-A64s9vlZSd_&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=1JAns64_qRpMvtEWVIQC39CLFNQhEMoCz&amp;export=download)</t>
   </si>
   <si>
-    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing), Barbas 2010 [pdf](https://drive.google.com/file/d/15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y/view)</t>
+    <t>Gerber  &amp; Green 2012. FEDAI [Descarga] https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing)
+Barabas 2010 [pdf](https://drive.google.com/file/d/15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y/view)
+Aronow et al 2015 [pdf](url)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,21 +428,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="99.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" customWidth="1"/>
+    <col min="4" max="4" width="80.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -463,7 +460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -480,7 +477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -497,7 +494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -514,7 +511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -531,7 +528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -548,7 +545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -565,7 +562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Docencia\2023\Curso Diseño de Experimentos\Curso_Experimentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A913F3-BD33-432D-950F-B9E339EAA220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00185899-2CF2-B74D-A863-5D55FA6AA9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,8 +73,7 @@
   </si>
   <si>
     <t>Gerber  &amp; Green 2012. FEDAI [Descarga] https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing)
-Barabas 2010 [pdf](https://drive.google.com/file/d/15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y/view)
-Aronow et al 2015 [pdf](url)</t>
+Barabas 2010 [pdf](https://drive.google.com/file/d/15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y/view), Aronow et al 2015 [pdf](url)</t>
   </si>
 </sst>
 </file>
@@ -432,18 +431,18 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
-    <col min="3" max="3" width="85.81640625" customWidth="1"/>
-    <col min="4" max="4" width="80.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="85.83203125" customWidth="1"/>
+    <col min="4" max="4" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -460,7 +459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -477,7 +476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -494,7 +493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -511,7 +510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -528,7 +527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -545,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -562,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00185899-2CF2-B74D-A863-5D55FA6AA9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E088416-484C-6141-ABDD-9A84DA88DB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11680" yWindow="2980" windowWidth="30880" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
   </si>
   <si>
     <t>Gerber  &amp; Green 2012. FEDAI [Descarga] https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing)
-Barabas 2010 [pdf](https://drive.google.com/file/d/15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y/view), Aronow et al 2015 [pdf](url)</t>
+Barabas 2010 [pdf](https://drive.google.com/u/0/uc?id=15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y&amp;export=download)  Aronow et al 2015 [pdf]()</t>
   </si>
 </sst>
 </file>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -459,7 +459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E088416-484C-6141-ABDD-9A84DA88DB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3C04D3-9332-A649-B5D1-9264DB069ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11680" yWindow="2980" windowWidth="30880" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,8 +72,7 @@
     <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1J6pjygV39O6g-A_VqCOC-A64s9vlZSd_&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=1JAns64_qRpMvtEWVIQC39CLFNQhEMoCz&amp;export=download)</t>
   </si>
   <si>
-    <t>Gerber  &amp; Green 2012. FEDAI [Descarga] https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing)
-Barabas 2010 [pdf](https://drive.google.com/u/0/uc?id=15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y&amp;export=download)  Aronow et al 2015 [pdf]()</t>
+    <t>Gerber  &amp; Green 2012. FEDAI [Descarga]https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing) Barabas 2010 [pdf](https://drive.google.com/u/0/uc?id=15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y&amp;export=download)  Aronow et al 2015 [pdf]()</t>
   </si>
 </sst>
 </file>
@@ -430,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3C04D3-9332-A649-B5D1-9264DB069ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9151EC48-6EA8-8D4D-830D-58C20DD038FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11680" yWindow="2980" windowWidth="30880" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1J6pjygV39O6g-A_VqCOC-A64s9vlZSd_&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=1JAns64_qRpMvtEWVIQC39CLFNQhEMoCz&amp;export=download)</t>
   </si>
   <si>
-    <t>Gerber  &amp; Green 2012. FEDAI [Descarga]https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing) Barabas 2010 [pdf](https://drive.google.com/u/0/uc?id=15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y&amp;export=download)  Aronow et al 2015 [pdf]()</t>
+    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing) Barabas 2010 [pdf](https://drive.google.com/u/0/uc?id=15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y&amp;export=download)  Aronow et al 2015 [pdf]()</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Docencia\2023\Curso Diseño de Experimentos\Curso_Experimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9151EC48-6EA8-8D4D-830D-58C20DD038FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FD2566-52DA-419B-9DD8-5951FBAA852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="2980" windowWidth="30880" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Tema</t>
   </si>
@@ -72,7 +72,10 @@
     <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1J6pjygV39O6g-A_VqCOC-A64s9vlZSd_&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=1JAns64_qRpMvtEWVIQC39CLFNQhEMoCz&amp;export=download)</t>
   </si>
   <si>
-    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing) Barabas 2010 [pdf](https://drive.google.com/u/0/uc?id=15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y&amp;export=download)  Aronow et al 2015 [pdf]()</t>
+    <t>Banjeree &amp; Duflo 2017 [pdf]()</t>
+  </si>
+  <si>
+    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing) Barabas 2010 [pdf](https://drive.google.com/u/0/uc?id=15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y&amp;export=download)  Aronow &amp; Sami 2015 [pdf](https://yasirkula.net/drive/downloadlinkgenerator/?state=%7B%22ids%22:%5B%2215TBaGM4Vek3eGtyKhkKs8RPcHguBpOsn%22%5D,%22action%22:%22open%22,%22userId%22:%22111082203062924709011%22,%22resourceKeys%22:%7B%7D%7D)</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,19 +432,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="85.83203125" customWidth="1"/>
-    <col min="4" max="4" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="85.81640625" customWidth="1"/>
+    <col min="4" max="4" width="80.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -458,7 +461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -466,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -475,7 +478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -483,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -492,7 +495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -509,7 +512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -526,7 +529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -543,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -560,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Docencia\2023\Curso Diseño de Experimentos\Curso_Experimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FD2566-52DA-419B-9DD8-5951FBAA852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1506DB52-B3DD-4417-98CF-22204DAF5729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>Banjeree &amp; Duflo 2017 [pdf]()</t>
   </si>
   <si>
-    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing) Barabas 2010 [pdf](https://drive.google.com/u/0/uc?id=15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y&amp;export=download)  Aronow &amp; Sami 2015 [pdf](https://yasirkula.net/drive/downloadlinkgenerator/?state=%7B%22ids%22:%5B%2215TBaGM4Vek3eGtyKhkKs8RPcHguBpOsn%22%5D,%22action%22:%22open%22,%22userId%22:%22111082203062924709011%22,%22resourceKeys%22:%7B%7D%7D)</t>
+    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing) Barabas &amp; Jerit 2010 [pdf](https://drive.google.com/u/0/uc?id=15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y&amp;export=download)  Aronow &amp; Sami 2015 [pdf](https://yasirkula.net/drive/downloadlinkgenerator/?state=%7B%22ids%22:%5B%2215TBaGM4Vek3eGtyKhkKs8RPcHguBpOsn%22%5D,%22action%22:%22open%22,%22userId%22:%22111082203062924709011%22,%22resourceKeys%22:%7B%7D%7D)</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Docencia\2023\Curso Diseño de Experimentos\Curso_Experimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1506DB52-B3DD-4417-98CF-22204DAF5729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929D1310-9B22-4483-BF78-A54BECDF238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Tema</t>
   </si>
@@ -72,10 +72,16 @@
     <t>Lab 1: Introducción a la aleatorización simple,completa, y por bloques: [HTML](https://drive.google.com/u/0/uc?id=1J6pjygV39O6g-A_VqCOC-A64s9vlZSd_&amp;export=download), [Rmd](https://drive.google.com/u/0/uc?id=1JAns64_qRpMvtEWVIQC39CLFNQhEMoCz&amp;export=download)</t>
   </si>
   <si>
-    <t>Banjeree &amp; Duflo 2017 [pdf]()</t>
-  </si>
-  <si>
-    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing) Barabas &amp; Jerit 2010 [pdf](https://drive.google.com/u/0/uc?id=15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y&amp;export=download)  Aronow &amp; Sami 2015 [pdf](https://yasirkula.net/drive/downloadlinkgenerator/?state=%7B%22ids%22:%5B%2215TBaGM4Vek3eGtyKhkKs8RPcHguBpOsn%22%5D,%22action%22:%22open%22,%22userId%22:%22111082203062924709011%22,%22resourceKeys%22:%7B%7D%7D)</t>
+    <t>Gerber  &amp; Green 2012. FEDAI [Descarga](https://drive.google.com/drive/folders/14HDw0lx7v8cduNtj2XNvvZ5fm_lQ7Z6y?usp=sharing) Barabas &amp; Jerit 2010 [pdf](https://drive.google.com/u/0/uc?id=15SqCaheQIA_Eg8Q6CxkkF5Gdt2dPdK1Y&amp;export=download)  Aronow &amp; Sami 2015 [pdf](https://drive.google.com/uc?id=15TBaGM4Vek3eGtyKhkKs8RPcHguBpOsn&amp;export=download)</t>
+  </si>
+  <si>
+    <t>Banjeree &amp; Duflo 2017 [pdf](https://drive.google.com/uc?id=15Q9Bz5dOwA0j_hB9sjNF7sMtsQBk__0M&amp;export=download) \n Ding, Feller &amp; Miratrix 2015 [pdf](https://drive.google.com/uc?id=15P9qLcjj_aoIhe7ciMijrHSROJqqo9_M&amp;export=download) \n Duflo, Glennester &amp; Klemer 2007 [pdf](https://drive.google.com/uc?id=15PTsNN46mFAQ6mEDYtaYtVu8D9DLQudX&amp;export=download) \n Freedman 2008 [pdf](https://drive.google.com/uc?id=15P2BC-eNSbX4oECTlPVsVBkfpoXPpisR&amp;export=download) \n Lin 2013 [pdf](https://drive.google.com/uc?id=15NIlPp_3Q5zA-JdoVI0cM78HAH7ZeYmX&amp;export=download) \n Nolen 2011 [pdf](https://drive.google.com/uc?id=15Llmro84jRR-4_jQvxRt3zYFinC3U7sc&amp;export=download) \n Samii &amp; Aronow 2012 [pdf](https://drive.google.com/uc?id=1TmrWjQDkAB8o8ubISLlJu2LZi9AlVygm&amp;export=download) \n Wager et al 2016 [pdf](https://drive.google.com/uc?id=15NGuSOcPxU3kMTYCrPxE8WnYyTkgXIcE&amp;export=download)</t>
+  </si>
+  <si>
+    <t>Moore 2012 [pdf](https://drive.google.com/uc?id=15MRIai-gAEJfOSvzTrIMHi0xLEMNZcve&amp;export=download) \n Moore &amp; Moore 2013 [pdf](https://drive.google.com/uc?id=15Kifc2ULatuk1Wlkmi1dsRnAJ0U_Kqns&amp;export=download)</t>
+  </si>
+  <si>
+    <t>Athey &amp; Imbens 2017 [pdf](https://drive.google.com/uc?id=15H9wLR8hk0NTVUULcjfr-GXCFMKuhtpP&amp;export=download) \n Egami 2018 [pdf](https://drive.google.com/uc?id=15UwQw-nz4aG52nzdj8uIv8HDTsVQ7Svj&amp;export=download)</t>
   </si>
 </sst>
 </file>
@@ -433,15 +439,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="85.81640625" customWidth="1"/>
-    <col min="4" max="4" width="80.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.36328125" customWidth="1"/>
+    <col min="4" max="4" width="72.90625" customWidth="1"/>
+    <col min="5" max="5" width="213" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -461,7 +468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -469,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -478,15 +485,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -495,15 +502,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -512,15 +519,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Docencia\2023\Curso Diseño de Experimentos\Curso_Experimentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929D1310-9B22-4483-BF78-A54BECDF238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEEAAC7-269E-41C7-9F02-BA0CFF051488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Tema</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Athey &amp; Imbens 2017 [pdf](https://drive.google.com/uc?id=15H9wLR8hk0NTVUULcjfr-GXCFMKuhtpP&amp;export=download) \n Egami 2018 [pdf](https://drive.google.com/uc?id=15UwQw-nz4aG52nzdj8uIv8HDTsVQ7Svj&amp;export=download)</t>
+  </si>
+  <si>
+    <t>Lab 2: RI: [HTML](https://drive.google.com/file/d/1-JyeCf7fnkAD5yinoPHoOwRv4L2B28RS/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1xRH8NtGT5Sbc_Vp9HG_sKGht02ZHIMiZ/view?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -439,19 +442,19 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="90.36328125" customWidth="1"/>
-    <col min="4" max="4" width="72.90625" customWidth="1"/>
+    <col min="1" max="1" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="3" width="90.33203125" customWidth="1"/>
+    <col min="4" max="4" width="72.9296875" customWidth="1"/>
     <col min="5" max="5" width="213" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -468,7 +471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -485,7 +488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -499,10 +502,10 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -519,7 +522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -536,7 +539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -553,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -570,7 +573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEEAAC7-269E-41C7-9F02-BA0CFF051488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FD7F7-B3B0-49A1-A8F4-D22EC41FA3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Tema</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Lab 2: RI: [HTML](https://drive.google.com/file/d/1-JyeCf7fnkAD5yinoPHoOwRv4L2B28RS/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1xRH8NtGT5Sbc_Vp9HG_sKGht02ZHIMiZ/view?usp=sharing)</t>
+  </si>
+  <si>
+    <t>Lab 3: Power: [HTML](https://drive.google.com/file/d/1EfgP-mGvNiFq-sADAsNF49bQtnnRDFjn/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1Ee2wSvcGqZQ1DERMDSX3y150tDVYGqoi/view?usp=sharing) Lab 4: Blocked Designs: [HTML](https://drive.google.com/file/d/1EfhqKDisWm8rtUTTta1owjCYrOKa4lMD/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1EfKT1pL9Egdfzoxb_qwpgfoXgY3rpXCD/view?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -441,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -519,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FD7F7-B3B0-49A1-A8F4-D22EC41FA3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275829DA-B3BD-5C48-80E0-664EE99BF419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22400" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Tema</t>
   </si>
@@ -88,16 +88,30 @@
   </si>
   <si>
     <t>Lab 3: Power: [HTML](https://drive.google.com/file/d/1EfgP-mGvNiFq-sADAsNF49bQtnnRDFjn/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1Ee2wSvcGqZQ1DERMDSX3y150tDVYGqoi/view?usp=sharing) Lab 4: Blocked Designs: [HTML](https://drive.google.com/file/d/1EfhqKDisWm8rtUTTta1owjCYrOKa4lMD/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1EfKT1pL9Egdfzoxb_qwpgfoXgY3rpXCD/view?usp=sharing)</t>
+  </si>
+  <si>
+    <t>[AsignacionAleatoria.pdf](https://drive.google.com/u/0/uc?id=1EVxaJUyUSdxeGnfZmJG-Vvmcw-ba2Era&amp;export=download), [Power.pdf](https://drive.google.com/u/0/uc?id=1EUR_-Qolbh7zGtpiDyMZHHj0HeJADDOz&amp;export=download)</t>
+  </si>
+  <si>
+    <t>[AsignacionBloques.pdf](https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,16 +134,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,20 +461,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="90.33203125" customWidth="1"/>
-    <col min="4" max="4" width="72.9296875" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
     <col min="5" max="5" width="213" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -474,7 +491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -491,7 +508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -502,13 +519,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -518,14 +535,14 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -542,7 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -559,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -576,7 +593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -594,6 +611,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download" xr:uid="{6E2D6CA2-47F7-664B-9F91-CAA5B02B04D2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275829DA-B3BD-5C48-80E0-664EE99BF419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A2C47-0A39-C248-9A9B-4C8823F32832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22400" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,13 +87,13 @@
     <t>Lab 2: RI: [HTML](https://drive.google.com/file/d/1-JyeCf7fnkAD5yinoPHoOwRv4L2B28RS/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1xRH8NtGT5Sbc_Vp9HG_sKGht02ZHIMiZ/view?usp=sharing)</t>
   </si>
   <si>
-    <t>Lab 3: Power: [HTML](https://drive.google.com/file/d/1EfgP-mGvNiFq-sADAsNF49bQtnnRDFjn/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1Ee2wSvcGqZQ1DERMDSX3y150tDVYGqoi/view?usp=sharing) Lab 4: Blocked Designs: [HTML](https://drive.google.com/file/d/1EfhqKDisWm8rtUTTta1owjCYrOKa4lMD/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1EfKT1pL9Egdfzoxb_qwpgfoXgY3rpXCD/view?usp=sharing)</t>
-  </si>
-  <si>
     <t>[AsignacionAleatoria.pdf](https://drive.google.com/u/0/uc?id=1EVxaJUyUSdxeGnfZmJG-Vvmcw-ba2Era&amp;export=download), [Power.pdf](https://drive.google.com/u/0/uc?id=1EUR_-Qolbh7zGtpiDyMZHHj0HeJADDOz&amp;export=download)</t>
   </si>
   <si>
     <t>[AsignacionBloques.pdf](https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download)</t>
+  </si>
+  <si>
+    <t>Lab 3: Power: [HTML](https://drive.google.com/file/d/1EfgP-mGvNiFq-sADAsNF49bQtnnRDFjn/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1Ee2wSvcGqZQ1DERMDSX3y150tDVYGqoi/view?usp=sharing) Lab 4: Blocked Designs: [HTML](https://drive.google.com/file/d/1EfhqKDisWm8rtUTTta1owjCYrOKa4lMD/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1EfKT1pL9Egdfzoxb_qwpgfoXgY3rpXCD/view?usp=sharing), Lab 5 : Clusters[Rmd](https://drive.google.com/u/0/uc?id=1frrMkWwsT1b4HAdSsT8XztM9J_llTXdT&amp;export=download), [HTML](https://drive.google.com/u/0/uc?id=1jY6fkenog2qwxmQz3KwtBMXUJu84VICB&amp;export=download)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -519,7 +519,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -536,10 +536,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A2C47-0A39-C248-9A9B-4C8823F32832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF27502-5FE9-5340-A77E-2A8874455024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22400" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30040" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Tema</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Lab 3: Power: [HTML](https://drive.google.com/file/d/1EfgP-mGvNiFq-sADAsNF49bQtnnRDFjn/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1Ee2wSvcGqZQ1DERMDSX3y150tDVYGqoi/view?usp=sharing) Lab 4: Blocked Designs: [HTML](https://drive.google.com/file/d/1EfhqKDisWm8rtUTTta1owjCYrOKa4lMD/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1EfKT1pL9Egdfzoxb_qwpgfoXgY3rpXCD/view?usp=sharing), Lab 5 : Clusters[Rmd](https://drive.google.com/u/0/uc?id=1frrMkWwsT1b4HAdSsT8XztM9J_llTXdT&amp;export=download), [HTML](https://drive.google.com/u/0/uc?id=1jY6fkenog2qwxmQz3KwtBMXUJu84VICB&amp;export=download)</t>
+  </si>
+  <si>
+    <t>[Fromulario_Registro.html](https://drive.google.com/u/0/uc?id=1FEM_wvJr1olLHnb5pZhivvdKlPfrCOCv&amp;export=download)</t>
+  </si>
+  <si>
+    <t>[PDF](https://drive.google.com/u/0/uc?id=1FGDnnDUPCmuI_AJxZq17Hym2IMj7vyXA&amp;export=download)</t>
   </si>
 </sst>
 </file>
@@ -461,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -600,14 +606,12 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ry4DW0ytzBTm2QpZbBJtiQ_i_FWgsO8E\Experimentos dECON\Curso_Experimentos WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF27502-5FE9-5340-A77E-2A8874455024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30040" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="30045" windowHeight="18180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Tema</t>
   </si>
@@ -100,12 +99,15 @@
   </si>
   <si>
     <t>[PDF](https://drive.google.com/u/0/uc?id=1FGDnnDUPCmuI_AJxZq17Hym2IMj7vyXA&amp;export=download)</t>
+  </si>
+  <si>
+    <t>[DiseñoAliento.pdf](https://drive.google.com/uc?id=1GibnDUaXJoRjbGAnm3xDAFuwEVefa9WL&amp;export=download)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +154,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,23 +466,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="90.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="90.28515625" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
     <col min="5" max="5" width="213" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -497,7 +499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,7 +516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -531,7 +533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -548,7 +550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -559,13 +561,13 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -582,7 +584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -599,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -616,7 +618,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download" xr:uid="{6E2D6CA2-47F7-664B-9F91-CAA5B02B04D2}"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ry4DW0ytzBTm2QpZbBJtiQ_i_FWgsO8E\Experimentos dECON\Curso_Experimentos WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D08D5C6-246A-154D-B206-5AB6E0BBCA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="30045" windowHeight="18180"/>
+    <workbookView xWindow="2680" yWindow="2100" windowWidth="39920" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +63,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>[PDF](https://drive.google.com/u/0/uc?id=14ocI_63vA0eF2ixw4rOMzs0H6vzGTv4H&amp;export=download)</t>
-  </si>
-  <si>
     <t>Lecturas</t>
   </si>
   <si>
@@ -86,12 +84,6 @@
     <t>Lab 2: RI: [HTML](https://drive.google.com/file/d/1-JyeCf7fnkAD5yinoPHoOwRv4L2B28RS/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1xRH8NtGT5Sbc_Vp9HG_sKGht02ZHIMiZ/view?usp=sharing)</t>
   </si>
   <si>
-    <t>[AsignacionAleatoria.pdf](https://drive.google.com/u/0/uc?id=1EVxaJUyUSdxeGnfZmJG-Vvmcw-ba2Era&amp;export=download), [Power.pdf](https://drive.google.com/u/0/uc?id=1EUR_-Qolbh7zGtpiDyMZHHj0HeJADDOz&amp;export=download)</t>
-  </si>
-  <si>
-    <t>[AsignacionBloques.pdf](https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download)</t>
-  </si>
-  <si>
     <t>Lab 3: Power: [HTML](https://drive.google.com/file/d/1EfgP-mGvNiFq-sADAsNF49bQtnnRDFjn/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1Ee2wSvcGqZQ1DERMDSX3y150tDVYGqoi/view?usp=sharing) Lab 4: Blocked Designs: [HTML](https://drive.google.com/file/d/1EfhqKDisWm8rtUTTta1owjCYrOKa4lMD/view?usp=sharing), [Rmd](https://drive.google.com/file/d/1EfKT1pL9Egdfzoxb_qwpgfoXgY3rpXCD/view?usp=sharing), Lab 5 : Clusters[Rmd](https://drive.google.com/u/0/uc?id=1frrMkWwsT1b4HAdSsT8XztM9J_llTXdT&amp;export=download), [HTML](https://drive.google.com/u/0/uc?id=1jY6fkenog2qwxmQz3KwtBMXUJu84VICB&amp;export=download)</t>
   </si>
   <si>
@@ -101,13 +93,22 @@
     <t>[PDF](https://drive.google.com/u/0/uc?id=1FGDnnDUPCmuI_AJxZq17Hym2IMj7vyXA&amp;export=download)</t>
   </si>
   <si>
-    <t>[DiseñoAliento.pdf](https://drive.google.com/uc?id=1GibnDUaXJoRjbGAnm3xDAFuwEVefa9WL&amp;export=download)</t>
+    <t>[AsignacionAleatoria.pdf](https://drive.google.com/u/0/uc?id=1EVxaJUyUSdxeGnfZmJG-Vvmcw-ba2Era&amp;export=download)</t>
+  </si>
+  <si>
+    <t>[Inferencia](https://drive.google.com/u/0/uc?id=14ocI_63vA0eF2ixw4rOMzs0H6vzGTv4H&amp;export=download)</t>
+  </si>
+  <si>
+    <t>[AsignacionBloques.pdf](https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download), [PotenciaEstadistica.pdf](https://drive.google.com/file/d/14ijDQFe4rBo4vJripGDwi3B1AH6HVd7u/view?usp=sharing), [Estimacion Lin, Bloques, Clusters](https://drive.google.com/file/d/15IYxoBhxM4e9FeeA92jrJfO8TPTfKrst/view)</t>
+  </si>
+  <si>
+    <t>[Diseños de Aliento (IV).pdf](https://drive.google.com/uc?id=1GibnDUaXJoRjbGAnm3xDAFuwEVefa9WL&amp;export=download)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,10 +152,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,159 +469,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="36.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="90.28515625" customWidth="1"/>
-    <col min="4" max="4" width="73" customWidth="1"/>
-    <col min="5" max="5" width="213" customWidth="1"/>
+    <col min="1" max="16384" width="36.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="304" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D08D5C6-246A-154D-B206-5AB6E0BBCA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C2BCED-DB93-6743-9A60-8805E79C858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2100" windowWidth="39920" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Tema</t>
   </si>
@@ -99,10 +99,16 @@
     <t>[Inferencia](https://drive.google.com/u/0/uc?id=14ocI_63vA0eF2ixw4rOMzs0H6vzGTv4H&amp;export=download)</t>
   </si>
   <si>
-    <t>[AsignacionBloques.pdf](https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download), [PotenciaEstadistica.pdf](https://drive.google.com/file/d/14ijDQFe4rBo4vJripGDwi3B1AH6HVd7u/view?usp=sharing), [Estimacion Lin, Bloques, Clusters](https://drive.google.com/file/d/15IYxoBhxM4e9FeeA92jrJfO8TPTfKrst/view)</t>
-  </si>
-  <si>
-    <t>[Diseños de Aliento (IV).pdf](https://drive.google.com/uc?id=1GibnDUaXJoRjbGAnm3xDAFuwEVefa9WL&amp;export=download)</t>
+    <t>[AsignacionBloques.pdf](https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download) [PotenciaEstadistica.pdf](https://drive.google.com/file/d/14ijDQFe4rBo4vJripGDwi3B1AH6HVd7u/view?usp=sharing) [Estimacion Lin-Bloques-Clusters.pdf](https://drive.google.com/file/d/15IYxoBhxM4e9FeeA92jrJfO8TPTfKrst/view)</t>
+  </si>
+  <si>
+    <t>[Diseños de Aliento (IV).pdf](https://drive.google.com/uc?id=1GibnDUaXJoRjbGAnm3xDAFuwEVefa9WL&amp;export=download) [Diseños factoriales.pdf](https://drive.google.com/file/d/1AKmQLHQ-yn9fB0533-gTXhF1XAVFuGpG/view?usp=sharing)</t>
+  </si>
+  <si>
+    <t>Lab 7: Efectos heterogéneos [HTML](https://drive.google.com/u/0/uc?id=1GkMu98kl8oT_7WSq0p_TMtRNeoUKmPAk&amp;export=download) [.Rmd](Lab7_efectos_heterogeneos)</t>
+  </si>
+  <si>
+    <t>Lab 6: Cumplimiento imperfecto y variables instrumentales [HTML](https://drive.google.com/u/0/uc?id=1AgYwrIxK0SYlYJHBHJMz0QnnMqfKdWPQ&amp;export=download), [.Rmd](https://drive.google.com/u/0/uc?id=1ANq7qSyIw-IqFXJXfuQ2LnCQN_aK6OlG&amp;export=download)</t>
   </si>
 </sst>
 </file>
@@ -472,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -563,10 +569,10 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -580,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C2BCED-DB93-6743-9A60-8805E79C858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB6A777-8E9D-3345-ADF4-DC64B5CDD80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2100" windowWidth="39920" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,10 +105,10 @@
     <t>[Diseños de Aliento (IV).pdf](https://drive.google.com/uc?id=1GibnDUaXJoRjbGAnm3xDAFuwEVefa9WL&amp;export=download) [Diseños factoriales.pdf](https://drive.google.com/file/d/1AKmQLHQ-yn9fB0533-gTXhF1XAVFuGpG/view?usp=sharing)</t>
   </si>
   <si>
-    <t>Lab 7: Efectos heterogéneos [HTML](https://drive.google.com/u/0/uc?id=1GkMu98kl8oT_7WSq0p_TMtRNeoUKmPAk&amp;export=download) [.Rmd](Lab7_efectos_heterogeneos)</t>
-  </si>
-  <si>
     <t>Lab 6: Cumplimiento imperfecto y variables instrumentales [HTML](https://drive.google.com/u/0/uc?id=1AgYwrIxK0SYlYJHBHJMz0QnnMqfKdWPQ&amp;export=download), [.Rmd](https://drive.google.com/u/0/uc?id=1ANq7qSyIw-IqFXJXfuQ2LnCQN_aK6OlG&amp;export=download)</t>
+  </si>
+  <si>
+    <t>Lab 7: Interacción causal en diseños Factoriales [HTML](https://drive.google.com/u/0/uc?id=1GkMu98kl8oT_7WSq0p_TMtRNeoUKmPAk&amp;export=download) [.Rmd](Lab7_efectos_heterogeneos)</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -569,10 +569,10 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -586,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB6A777-8E9D-3345-ADF4-DC64B5CDD80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF1E61-0941-CA43-99F1-4AADB674EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2100" windowWidth="39920" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Tema</t>
   </si>
@@ -102,13 +102,13 @@
     <t>[AsignacionBloques.pdf](https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download) [PotenciaEstadistica.pdf](https://drive.google.com/file/d/14ijDQFe4rBo4vJripGDwi3B1AH6HVd7u/view?usp=sharing) [Estimacion Lin-Bloques-Clusters.pdf](https://drive.google.com/file/d/15IYxoBhxM4e9FeeA92jrJfO8TPTfKrst/view)</t>
   </si>
   <si>
-    <t>[Diseños de Aliento (IV).pdf](https://drive.google.com/uc?id=1GibnDUaXJoRjbGAnm3xDAFuwEVefa9WL&amp;export=download) [Diseños factoriales.pdf](https://drive.google.com/file/d/1AKmQLHQ-yn9fB0533-gTXhF1XAVFuGpG/view?usp=sharing)</t>
-  </si>
-  <si>
-    <t>Lab 6: Cumplimiento imperfecto y variables instrumentales [HTML](https://drive.google.com/u/0/uc?id=1AgYwrIxK0SYlYJHBHJMz0QnnMqfKdWPQ&amp;export=download), [.Rmd](https://drive.google.com/u/0/uc?id=1ANq7qSyIw-IqFXJXfuQ2LnCQN_aK6OlG&amp;export=download)</t>
-  </si>
-  <si>
     <t>Lab 7: Interacción causal en diseños Factoriales [HTML](https://drive.google.com/u/0/uc?id=1GkMu98kl8oT_7WSq0p_TMtRNeoUKmPAk&amp;export=download) [.Rmd](Lab7_efectos_heterogeneos)</t>
+  </si>
+  <si>
+    <t>[Diseños de Aliento (IV).pdf](https://drive.google.com/uc?id=1GibnDUaXJoRjbGAnm3xDAFuwEVefa9WL&amp;export=download) [Diseños factoriales.pdf](https://drive.google.com/file/d/1AKmQLHQ-yn9fB0533-gTXhF1XAVFuGpG/view?usp=sharing) [Mediacion.pdf](https://drive.google.com/file/d/1BmkVIionkJ_jr30WgVESpIZJk3yt420d/view?usp=sharing)</t>
+  </si>
+  <si>
+    <t>Lab 6: Cumplimiento imperfecto y variables instrumentales [HTML](https://drive.google.com/u/0/uc?id=1AgYwrIxK0SYlYJHBHJMz0QnnMqfKdWPQ&amp;export=download), [.Rmd](https://drive.google.com/u/0/uc?id=1ANq7qSyIw-IqFXJXfuQ2LnCQN_aK6OlG&amp;export=download), Lab 8: Mediación [HTML](https://drive.google.com/file/d/1BV2hmgTjOyGRrO_1hcVxakQSZOou5ZtG/view?usp=sharing), [.Rmd](https://drive.google.com/file/d/1B4pl1u8xX0j7y50o6SjItY606OLHVjxx/view?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -566,10 +566,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="96" x14ac:dyDescent="0.2">
@@ -579,14 +579,11 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF1E61-0941-CA43-99F1-4AADB674EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3ABE78-E151-4BE9-A0E2-94CACC88F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="2100" windowWidth="39920" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Tema</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Lab 6: Cumplimiento imperfecto y variables instrumentales [HTML](https://drive.google.com/u/0/uc?id=1AgYwrIxK0SYlYJHBHJMz0QnnMqfKdWPQ&amp;export=download), [.Rmd](https://drive.google.com/u/0/uc?id=1ANq7qSyIw-IqFXJXfuQ2LnCQN_aK6OlG&amp;export=download), Lab 8: Mediación [HTML](https://drive.google.com/file/d/1BV2hmgTjOyGRrO_1hcVxakQSZOou5ZtG/view?usp=sharing), [.Rmd](https://drive.google.com/file/d/1B4pl1u8xX0j7y50o6SjItY606OLHVjxx/view?usp=sharing)</t>
+  </si>
+  <si>
+    <t>[Tipos de Experimentos](https://drive.google.com/file/d/10A4EJFGWfebygOzYqxJxFSMew-zIN9r7/view?usp=sharing); [Experimentos de laboratorio](https://drive.google.com/file/d/1iVrSDTSJtu4G7u-j2Tg7Wm0kZPZryBSS/view?usp=sharing)</t>
+  </si>
+  <si>
+    <t>[.html](https://drive.google.com/drive/folders/1ie6TM3ywgaGiL25JR1g03rO7rcRTtQql?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -478,16 +484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="36.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="36.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="36.33203125" style="1"/>
+    <col min="1" max="3" width="36.33203125" style="1"/>
+    <col min="4" max="4" width="86" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="36.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -504,7 +512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -521,7 +529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -538,7 +546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="304" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -555,7 +563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -572,7 +580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -586,7 +594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -597,13 +605,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3ABE78-E151-4BE9-A0E2-94CACC88F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A98EB8E-DD2E-44B1-93A6-F601B01D03C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Tema</t>
   </si>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -587,6 +587,9 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
@@ -618,7 +621,9 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A98EB8E-DD2E-44B1-93A6-F601B01D03C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55DF9CB-529D-4025-9D9A-EE23C52C069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     <t>[Tipos de Experimentos](https://drive.google.com/file/d/10A4EJFGWfebygOzYqxJxFSMew-zIN9r7/view?usp=sharing); [Experimentos de laboratorio](https://drive.google.com/file/d/1iVrSDTSJtu4G7u-j2Tg7Wm0kZPZryBSS/view?usp=sharing)</t>
   </si>
   <si>
-    <t>[.html](https://drive.google.com/drive/folders/1ie6TM3ywgaGiL25JR1g03rO7rcRTtQql?usp=sharing)</t>
+    <t>[.html](https://drive.google.com/file/d/1ikfC9p_TsKVPGgi7IZqjFfgu2Lv9EEya/view?usp=sharing); [.R](https://drive.google.com/file/d/1ijRMKh7O599FJ7iwmQRfx-2mpVYs1Yp9/view?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -597,7 +597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55DF9CB-529D-4025-9D9A-EE23C52C069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124D2574-FFC8-461C-A370-FE87040B72BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,10 +111,10 @@
     <t>Lab 6: Cumplimiento imperfecto y variables instrumentales [HTML](https://drive.google.com/u/0/uc?id=1AgYwrIxK0SYlYJHBHJMz0QnnMqfKdWPQ&amp;export=download), [.Rmd](https://drive.google.com/u/0/uc?id=1ANq7qSyIw-IqFXJXfuQ2LnCQN_aK6OlG&amp;export=download), Lab 8: Mediación [HTML](https://drive.google.com/file/d/1BV2hmgTjOyGRrO_1hcVxakQSZOou5ZtG/view?usp=sharing), [.Rmd](https://drive.google.com/file/d/1B4pl1u8xX0j7y50o6SjItY606OLHVjxx/view?usp=sharing)</t>
   </si>
   <si>
-    <t>[Tipos de Experimentos](https://drive.google.com/file/d/10A4EJFGWfebygOzYqxJxFSMew-zIN9r7/view?usp=sharing); [Experimentos de laboratorio](https://drive.google.com/file/d/1iVrSDTSJtu4G7u-j2Tg7Wm0kZPZryBSS/view?usp=sharing)</t>
-  </si>
-  <si>
-    <t>[.html](https://drive.google.com/file/d/1ikfC9p_TsKVPGgi7IZqjFfgu2Lv9EEya/view?usp=sharing); [.R](https://drive.google.com/file/d/1ijRMKh7O599FJ7iwmQRfx-2mpVYs1Yp9/view?usp=sharing)</t>
+    <t>[Experimentos de Encuestas - Qualtrics](https://drive.google.com/file/d/10GOzGsxcG_Kb93XEzRaefCPD4RGQr1Ut/view?usp=sharing); [Tipos de Experimentos](https://drive.google.com/file/d/10A4EJFGWfebygOzYqxJxFSMew-zIN9r7/view?usp=sharing); [Experimentos de laboratorio](https://drive.google.com/file/d/1iVrSDTSJtu4G7u-j2Tg7Wm0kZPZryBSS/view?usp=sharing)</t>
+  </si>
+  <si>
+    <t>[.html](https://drive.google.com/file/d/1ikfC9p_TsKVPGgi7IZqjFfgu2Lv9EEya/view?usp=sharing); [.qmd](https://drive.google.com/file/d/1ijRMKh7O599FJ7iwmQRfx-2mpVYs1Yp9/view?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124D2574-FFC8-461C-A370-FE87040B72BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A42DBFE-CBFB-4D77-AA13-E8E6AB60A3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     <t>[Experimentos de Encuestas - Qualtrics](https://drive.google.com/file/d/10GOzGsxcG_Kb93XEzRaefCPD4RGQr1Ut/view?usp=sharing); [Tipos de Experimentos](https://drive.google.com/file/d/10A4EJFGWfebygOzYqxJxFSMew-zIN9r7/view?usp=sharing); [Experimentos de laboratorio](https://drive.google.com/file/d/1iVrSDTSJtu4G7u-j2Tg7Wm0kZPZryBSS/view?usp=sharing)</t>
   </si>
   <si>
-    <t>[.html](https://drive.google.com/file/d/1ikfC9p_TsKVPGgi7IZqjFfgu2Lv9EEya/view?usp=sharing); [.qmd](https://drive.google.com/file/d/1ijRMKh7O599FJ7iwmQRfx-2mpVYs1Yp9/view?usp=sharing)</t>
+    <t>[.zip](https://drive.google.com/file/d/1tl7wGmp-MpVOC6SCJIX4wWr6kTbD6baR/view?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -597,7 +597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A42DBFE-CBFB-4D77-AA13-E8E6AB60A3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA0AB29-EC46-EA4C-85DD-72DB2CF6EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32380" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,22 +99,22 @@
     <t>[Inferencia](https://drive.google.com/u/0/uc?id=14ocI_63vA0eF2ixw4rOMzs0H6vzGTv4H&amp;export=download)</t>
   </si>
   <si>
-    <t>[AsignacionBloques.pdf](https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download) [PotenciaEstadistica.pdf](https://drive.google.com/file/d/14ijDQFe4rBo4vJripGDwi3B1AH6HVd7u/view?usp=sharing) [Estimacion Lin-Bloques-Clusters.pdf](https://drive.google.com/file/d/15IYxoBhxM4e9FeeA92jrJfO8TPTfKrst/view)</t>
-  </si>
-  <si>
     <t>Lab 7: Interacción causal en diseños Factoriales [HTML](https://drive.google.com/u/0/uc?id=1GkMu98kl8oT_7WSq0p_TMtRNeoUKmPAk&amp;export=download) [.Rmd](Lab7_efectos_heterogeneos)</t>
   </si>
   <si>
-    <t>[Diseños de Aliento (IV).pdf](https://drive.google.com/uc?id=1GibnDUaXJoRjbGAnm3xDAFuwEVefa9WL&amp;export=download) [Diseños factoriales.pdf](https://drive.google.com/file/d/1AKmQLHQ-yn9fB0533-gTXhF1XAVFuGpG/view?usp=sharing) [Mediacion.pdf](https://drive.google.com/file/d/1BmkVIionkJ_jr30WgVESpIZJk3yt420d/view?usp=sharing)</t>
-  </si>
-  <si>
     <t>Lab 6: Cumplimiento imperfecto y variables instrumentales [HTML](https://drive.google.com/u/0/uc?id=1AgYwrIxK0SYlYJHBHJMz0QnnMqfKdWPQ&amp;export=download), [.Rmd](https://drive.google.com/u/0/uc?id=1ANq7qSyIw-IqFXJXfuQ2LnCQN_aK6OlG&amp;export=download), Lab 8: Mediación [HTML](https://drive.google.com/file/d/1BV2hmgTjOyGRrO_1hcVxakQSZOou5ZtG/view?usp=sharing), [.Rmd](https://drive.google.com/file/d/1B4pl1u8xX0j7y50o6SjItY606OLHVjxx/view?usp=sharing)</t>
   </si>
   <si>
-    <t>[Experimentos de Encuestas - Qualtrics](https://drive.google.com/file/d/10GOzGsxcG_Kb93XEzRaefCPD4RGQr1Ut/view?usp=sharing); [Tipos de Experimentos](https://drive.google.com/file/d/10A4EJFGWfebygOzYqxJxFSMew-zIN9r7/view?usp=sharing); [Experimentos de laboratorio](https://drive.google.com/file/d/1iVrSDTSJtu4G7u-j2Tg7Wm0kZPZryBSS/view?usp=sharing)</t>
-  </si>
-  <si>
     <t>[.zip](https://drive.google.com/file/d/1tl7wGmp-MpVOC6SCJIX4wWr6kTbD6baR/view?usp=sharing)</t>
+  </si>
+  <si>
+    <t>[AsignacionBloques.pdf](https://drive.google.com/u/0/uc?id=1ETPauKMzngZQ2LWx1woXnzGhoyg_Uf1p&amp;export=download) [PotenciaEstadistica.pdf](https://drive.google.com/file/d/14ijDQFe4rBo4vJripGDwi3B1AH6HVd7u/view?usp=sharing) [Estimacion Lin-Bloques-Clusters.pdf](https://drive.google.com/file/d/15IYxoBhxM4e9FeeA92jrJfO8TPTfKrst/view), [VIDEO: clase potencia estadística](https://drive.google.com/file/d/1gQwaUNHga-Fa0cByxX8X9NIBSPEvRfOE/view?usp=sharing); [VIDEO: clase asignación por Bloques](https://salavirtual-udelar.zoom.us/rec/share/uNj8IEaHTgeV6JydtVlGYc4tAMyUnrpFo0r_5wgvv8RNQCREoBdwKiTBm8MJoNUx.ewDR4rj2p9_-KR-r)</t>
+  </si>
+  <si>
+    <t>[Diseños de Aliento (IV).pdf](https://drive.google.com/uc?id=1GibnDUaXJoRjbGAnm3xDAFuwEVefa9WL&amp;export=download) [Diseños factoriales.pdf](https://drive.google.com/file/d/1AKmQLHQ-yn9fB0533-gTXhF1XAVFuGpG/view?usp=sharing) [Mediacion.pdf](https://drive.google.com/file/d/1BmkVIionkJ_jr30WgVESpIZJk3yt420d/view?usp=sharing); [VIDEO: clase diseños factoriales](https://salavirtual-udelar.zoom.us/rec/share/GGGdhrxRmmn4BtdejhVPfVMs6ZeGZC0Sa8T8VaHEhGnVUglTvuKT9rfqpRkV0ux5.AGyMPixdrmpWu4dv)</t>
+  </si>
+  <si>
+    <t>[Experimentos de Encuestas - Qualtrics](https://drive.google.com/file/d/10GOzGsxcG_Kb93XEzRaefCPD4RGQr1Ut/view?usp=sharing); [Tipos de Experimentos](https://drive.google.com/file/d/10A4EJFGWfebygOzYqxJxFSMew-zIN9r7/view?usp=sharing); [Experimentos de laboratorio](https://drive.google.com/file/d/1iVrSDTSJtu4G7u-j2Tg7Wm0kZPZryBSS/view?usp=sharing), [Experimentos Naturales con RDD.pdf](https://drive.google.com/file/d/1DDAqPEdh-ytKcQ9ri7y0a2KUzQ5ZrTpl/view?usp=sharing); [VIDEO: clase RDD y Experimentos de laboratorio](https://salavirtual-udelar.zoom.us/rec/share/hQFQRPxFhYmKtyHHAIt1WDRQHSY9Ve-MwOqTzys59zHZjm5voHeYg7gQSG3ztgzn.S4HDFr5gU2VSAAj0)</t>
   </si>
 </sst>
 </file>
@@ -484,18 +484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="36.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="36.33203125" style="1"/>
     <col min="4" max="4" width="86" style="1" customWidth="1"/>
     <col min="5" max="16384" width="36.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -529,7 +529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -546,7 +546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -557,13 +557,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -574,13 +574,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -594,10 +594,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>

--- a/Clases.xlsx
+++ b/Clases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slopezcariboni/Google Drive/Experimentos dECON/Curso_Experimentos WEB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\WCDECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA0AB29-EC46-EA4C-85DD-72DB2CF6EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CCD1BC-1B6E-426A-9D66-1BD652C2E3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32380" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
     <t>[Diseños de Aliento (IV).pdf](https://drive.google.com/uc?id=1GibnDUaXJoRjbGAnm3xDAFuwEVefa9WL&amp;export=download) [Diseños factoriales.pdf](https://drive.google.com/file/d/1AKmQLHQ-yn9fB0533-gTXhF1XAVFuGpG/view?usp=sharing) [Mediacion.pdf](https://drive.google.com/file/d/1BmkVIionkJ_jr30WgVESpIZJk3yt420d/view?usp=sharing); [VIDEO: clase diseños factoriales](https://salavirtual-udelar.zoom.us/rec/share/GGGdhrxRmmn4BtdejhVPfVMs6ZeGZC0Sa8T8VaHEhGnVUglTvuKT9rfqpRkV0ux5.AGyMPixdrmpWu4dv)</t>
   </si>
   <si>
-    <t>[Experimentos de Encuestas - Qualtrics](https://drive.google.com/file/d/10GOzGsxcG_Kb93XEzRaefCPD4RGQr1Ut/view?usp=sharing); [Tipos de Experimentos](https://drive.google.com/file/d/10A4EJFGWfebygOzYqxJxFSMew-zIN9r7/view?usp=sharing); [Experimentos de laboratorio](https://drive.google.com/file/d/1iVrSDTSJtu4G7u-j2Tg7Wm0kZPZryBSS/view?usp=sharing), [Experimentos Naturales con RDD.pdf](https://drive.google.com/file/d/1DDAqPEdh-ytKcQ9ri7y0a2KUzQ5ZrTpl/view?usp=sharing); [VIDEO: clase RDD y Experimentos de laboratorio](https://salavirtual-udelar.zoom.us/rec/share/hQFQRPxFhYmKtyHHAIt1WDRQHSY9Ve-MwOqTzys59zHZjm5voHeYg7gQSG3ztgzn.S4HDFr5gU2VSAAj0)</t>
+    <t>[Experimentos de Encuestas - Qualtrics](https://drive.google.com/file/d/10GOzGsxcG_Kb93XEzRaefCPD4RGQr1Ut/view?usp=sharing); [Tipos de Experimentos](https://drive.google.com/file/d/10NvXg9FUUU0muewzUiHE0CgGXWOo_wpK/view?usp=sharing); [Experimentos de laboratorio](https://drive.google.com/file/d/1iVrSDTSJtu4G7u-j2Tg7Wm0kZPZryBSS/view?usp=sharing), [Experimentos Naturales con RDD.pdf](https://drive.google.com/file/d/1DDAqPEdh-ytKcQ9ri7y0a2KUzQ5ZrTpl/view?usp=sharing); [VIDEO: clase RDD y Experimentos de laboratorio](https://salavirtual-udelar.zoom.us/rec/share/hQFQRPxFhYmKtyHHAIt1WDRQHSY9Ve-MwOqTzys59zHZjm5voHeYg7gQSG3ztgzn.S4HDFr5gU2VSAAj0)</t>
   </si>
 </sst>
 </file>
@@ -484,18 +484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="36.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="36.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="36.33203125" style="1"/>
+    <col min="1" max="3" width="36.28515625" style="1"/>
     <col min="4" max="4" width="86" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="36.33203125" style="1"/>
+    <col min="5" max="16384" width="36.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -529,7 +529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -546,7 +546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="304" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -563,7 +563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -580,7 +580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -614,7 +614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
